--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Schram/Frederick_Schram.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Schram/Frederick_Schram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Robert Schram est un paléontologue et un carcinologiste américain, né le 11 août 1943 à Chicago.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Ph.D. à l’université de Chicago en 1968. Il est l’auteur de plus de 200 publications sur la taxinomie et la biologie des crustacés dont l’ouvrage de référence Crustacea  (ISBN 0-19-503742-1). En 1983, il fonde le journal Crustacean Issues qu’il dirige durant plus de vingt ans. Il passe l’essentiel de sa carrière à l’université d'Amsterdam aux Pays-Bas et prend sa retraite en 2005.
 </t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Frederick Schram » (voir la liste des auteurs).</t>
         </is>
